--- a/biology/Histoire de la zoologie et de la botanique/Stefan_Bengtson/Stefan_Bengtson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stefan_Bengtson/Stefan_Bengtson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stefan Bengtson est un paléontologue suédois né en 1947. Il est professeur émérite de paléontologie et conservateur en chef du département de paléozoologie au sein du muséum suédois d'histoire naturelle de Stockholm[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stefan Bengtson est un paléontologue suédois né en 1947. Il est professeur émérite de paléontologie et conservateur en chef du département de paléozoologie au sein du muséum suédois d'histoire naturelle de Stockholm.
 </t>
         </is>
       </c>
@@ -513,48 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Stefan Bengtson détient un doctorat de l'université d'Uppsala, en 1977. Sa thèse s'intitule « Aspects de fossiles problématiques du début du Paléozoïque ».
-Carrière universitaire
-Bengtson traite de l'évolution précoce des animaux, en particulier au cours de l'explosion cambrienne[1].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stefan Bengtson détient un doctorat de l'université d'Uppsala, en 1977. Sa thèse s'intitule « Aspects de fossiles problématiques du début du Paléozoïque ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stefan_Bengtson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stefan_Bengtson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière universitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bengtson traite de l'évolution précoce des animaux, en particulier au cours de l'explosion cambrienne.
 En 1983, il propose une phylogénie des conodontes, proposant l'évolution partant des protoconodontes au Cambrien, aux éléments de composition essentiellement organique, puis par minéralisation progressive des éléments, passant par les paraconodontes, pour finir par les euconodontes, aux éléments totalement minéralisés par de l'apatite.
 ▲
  └─o Protoconodonta (éteint)
       └─o Paraconodontida (éteint)
            └─o Euconodonta (éteint)
-En 1992, il reçoit la médaille Charles Doolittle Walcott de l'académie nationale des sciences des États-Unis[2]. En 2003, il intègre l'Académie royale des sciences de Suède[3].
-En 2017, son équipe découvre dans les monts Vindhya le plus ancien fossile multicellulaire d'eucaryote qui serait une algue rouge filamenteuse vieille de 1,7 milliard d'années[4]. 
+En 1992, il reçoit la médaille Charles Doolittle Walcott de l'académie nationale des sciences des États-Unis. En 2003, il intègre l'Académie royale des sciences de Suède.
+En 2017, son équipe découvre dans les monts Vindhya le plus ancien fossile multicellulaire d'eucaryote qui serait une algue rouge filamenteuse vieille de 1,7 milliard d'années. 
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Stefan_Bengtson</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stefan_Bengtson</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette liste ne se veut pas exhaustive[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette liste ne se veut pas exhaustive.
 (en) Aspects of problematic fossils in the early Palaeozoic (thèse de doctorat), Stockholm, Almqvist &amp; Wiksell, 1997, 71 p. (ISBN 978-91-554-0614-1)
 (en) Stefan Bengtson (dir.), Early life on earth, New York, Columbia University Press, 1994, 630 p. (ISBN 978-0-231-08088-0, lire en ligne)
 (en) Stefan Bengtson (dir.), Early Cambrian fossils from South Australia, Brisbane, Association of Australasian Palaeontologists, 1990, 364 p. (ISBN 978-0-949466-08-2)
